--- a/DATA_goal/Junction_Flooding_60.xlsx
+++ b/DATA_goal/Junction_Flooding_60.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41492.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>10.62</v>
+        <v>1.06</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>7.27</v>
+        <v>0.73</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.4</v>
+        <v>0.34</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>23.35</v>
+        <v>2.33</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>17.18</v>
+        <v>1.72</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>8.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>23.98</v>
+        <v>2.4</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>13.23</v>
+        <v>1.32</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.2</v>
+        <v>0.52</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>7.23</v>
+        <v>0.72</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>9.220000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>10.11</v>
+        <v>1.01</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.39</v>
+        <v>0.24</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>8.57</v>
+        <v>0.86</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>11.54</v>
+        <v>1.15</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.9</v>
+        <v>0.79</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.64</v>
+        <v>0.26</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>123.08</v>
+        <v>12.31</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>23.62</v>
+        <v>2.36</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.91</v>
+        <v>0.79</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>14.81</v>
+        <v>1.48</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.97</v>
+        <v>0.8</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.18</v>
+        <v>0.22</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>13.48</v>
+        <v>1.35</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.99</v>
+        <v>0.7</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.58</v>
+        <v>0.66</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.5</v>
+        <v>0.75</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.869999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.49</v>
+        <v>0.25</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>21.39</v>
+        <v>2.14</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.03</v>
+        <v>0.4</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41492.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>12.17</v>
+        <v>1.22</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.62</v>
+        <v>0.16</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>26.87</v>
+        <v>2.69</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>21.04</v>
+        <v>2.1</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>9.44</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>36.04</v>
+        <v>3.6</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>14.97</v>
+        <v>1.5</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.48</v>
+        <v>0.65</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>9.140000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>10.74</v>
+        <v>1.07</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>11.59</v>
+        <v>1.16</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.88</v>
+        <v>0.29</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.699999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>13.53</v>
+        <v>1.35</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.57</v>
+        <v>0.86</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.3</v>
+        <v>0.13</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>140.31</v>
+        <v>14.03</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>27.11</v>
+        <v>2.71</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>17.75</v>
+        <v>1.78</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>9.35</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.68</v>
+        <v>0.17</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>18.39</v>
+        <v>1.84</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>7.91</v>
+        <v>0.79</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.21</v>
+        <v>0.72</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>8.42</v>
+        <v>0.84</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>11.32</v>
+        <v>1.13</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>32.96</v>
+        <v>3.3</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.83</v>
+        <v>0.48</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>11.19</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41492.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>5.79</v>
+        <v>0.58</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.21</v>
+        <v>0.42</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.95</v>
+        <v>0.09</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>12.92</v>
+        <v>1.29</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>9.869999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4.47</v>
+        <v>0.45</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>20.92</v>
+        <v>2.09</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>7.18</v>
+        <v>0.72</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.13</v>
+        <v>0.31</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.19</v>
+        <v>0.42</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.17</v>
+        <v>0.52</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.33</v>
+        <v>0.13</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.66</v>
+        <v>0.47</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>6.47</v>
+        <v>0.65</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.25</v>
+        <v>0.42</v>
       </c>
       <c r="R4" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="W4" s="4" t="n">
         <v>0.85</v>
       </c>
-      <c r="S4" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>63.65</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>13.18</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>8.529999999999999</v>
-      </c>
       <c r="X4" s="4" t="n">
-        <v>4.45</v>
+        <v>0.45</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.86</v>
+        <v>0.09</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>10.23</v>
+        <v>1.02</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.8</v>
+        <v>0.38</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.53</v>
+        <v>0.35</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.11</v>
+        <v>0.41</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.44</v>
+        <v>0.54</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>19.32</v>
+        <v>1.93</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.26</v>
+        <v>0.23</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.38</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41492.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.4</v>
+        <v>0.64</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.71</v>
+        <v>0.47</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>14.19</v>
+        <v>1.42</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>11.12</v>
+        <v>1.11</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.97</v>
+        <v>0.5</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>20.37</v>
+        <v>2.04</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>7.88</v>
+        <v>0.79</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.47</v>
+        <v>0.35</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.81</v>
+        <v>0.48</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.69</v>
+        <v>0.57</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.15</v>
+        <v>0.61</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.51</v>
+        <v>0.15</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.11</v>
+        <v>0.51</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.12</v>
+        <v>0.71</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.54</v>
+        <v>0.45</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>70.48999999999999</v>
+        <v>7.05</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>14.29</v>
+        <v>1.43</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.72</v>
+        <v>0.47</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>9.359999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.93</v>
+        <v>0.49</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.85</v>
+        <v>0.09</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>9.98</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.17</v>
+        <v>0.42</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.81</v>
+        <v>0.38</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.45</v>
+        <v>0.45</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>5.98</v>
+        <v>0.6</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>18.48</v>
+        <v>1.85</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.54</v>
+        <v>0.25</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>5.9</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41492.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>4.69</v>
+        <v>0.47</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>3.46</v>
+        <v>0.35</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>10.44</v>
+        <v>1.04</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>8.140000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>15.89</v>
+        <v>1.59</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>5.79</v>
+        <v>0.58</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>2.58</v>
+        <v>0.26</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>3.49</v>
+        <v>0.35</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>4.18</v>
+        <v>0.42</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>4.54</v>
+        <v>0.45</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>3.76</v>
+        <v>0.38</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>5.24</v>
+        <v>0.52</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>3.36</v>
+        <v>0.34</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>49.9</v>
+        <v>4.99</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>10.58</v>
+        <v>1.06</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>3.47</v>
+        <v>0.35</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>6.92</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>3.62</v>
+        <v>0.36</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>7.75</v>
+        <v>0.78</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>3.07</v>
+        <v>0.31</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>2.81</v>
+        <v>0.28</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>3.29</v>
+        <v>0.33</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>4.4</v>
+        <v>0.44</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>14.52</v>
+        <v>1.45</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>1.86</v>
+        <v>0.19</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>4.34</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41492.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>21.04</v>
+        <v>2.1</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>15.76</v>
+        <v>1.58</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>1.06</v>
+        <v>0.11</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>45.98</v>
+        <v>4.6</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>37.6</v>
+        <v>3.76</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>16.51</v>
+        <v>1.65</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>60.04</v>
+        <v>6</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>25.57</v>
+        <v>2.56</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>11.47</v>
+        <v>1.15</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>16.83</v>
+        <v>1.68</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>18.45</v>
+        <v>1.84</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>19.61</v>
+        <v>1.96</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>5.22</v>
+        <v>0.52</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>16.54</v>
+        <v>1.65</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>23.52</v>
+        <v>2.35</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>13.91</v>
+        <v>1.39</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>244.46</v>
+        <v>24.45</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>46.16</v>
+        <v>4.62</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>15.27</v>
+        <v>1.53</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>31.07</v>
+        <v>3.11</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>16.33</v>
+        <v>1.63</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>2.29</v>
+        <v>0.23</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>30.11</v>
+        <v>3.01</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>13.49</v>
+        <v>1.35</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>11.93</v>
+        <v>1.19</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>14.03</v>
+        <v>1.4</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>19.4</v>
+        <v>1.94</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>54.38</v>
+        <v>5.44</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>8.609999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>19.09</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41492.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>12.89</v>
+        <v>1.29</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>9.640000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="D8" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AA8" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AB8" s="4" t="n">
         <v>0.73</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>28.21</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>41.91</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>15.68</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>7.06</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>10.24</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>14.43</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>8.59</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>147.2</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>28.47</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>19.11</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>20.27</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>7.35</v>
-      </c>
       <c r="AC8" s="4" t="n">
-        <v>8.630000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>11.9</v>
+        <v>1.19</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>38.23</v>
+        <v>3.82</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>5.25</v>
+        <v>0.53</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>11.71</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41492.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>15.11</v>
+        <v>1.51</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>11.31</v>
+        <v>1.13</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>33.02</v>
+        <v>3.3</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>26.99</v>
+        <v>2.7</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>11.85</v>
+        <v>1.19</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>46.46</v>
+        <v>4.65</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>18.36</v>
+        <v>1.84</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>8.26</v>
+        <v>0.83</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>12.07</v>
+        <v>1.21</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>13.25</v>
+        <v>1.32</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>14.09</v>
+        <v>1.41</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>3.74</v>
+        <v>0.37</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>11.88</v>
+        <v>1.19</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>16.89</v>
+        <v>1.69</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>173.51</v>
+        <v>17.35</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>33.22</v>
+        <v>3.32</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>10.97</v>
+        <v>1.1</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>22.35</v>
+        <v>2.23</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>11.73</v>
+        <v>1.17</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.64</v>
+        <v>0.16</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>22.67</v>
+        <v>2.27</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>9.69</v>
+        <v>0.97</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>8.57</v>
+        <v>0.86</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>10.08</v>
+        <v>1.01</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>13.93</v>
+        <v>1.39</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>42.13</v>
+        <v>4.21</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>6.18</v>
+        <v>0.62</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>13.71</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41492.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>15.98</v>
+        <v>1.6</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>11.98</v>
+        <v>1.2</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>34.9</v>
+        <v>3.49</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>28.59</v>
+        <v>2.86</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>12.54</v>
+        <v>1.25</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>49.3</v>
+        <v>4.93</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>19.4</v>
+        <v>1.94</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>8.74</v>
+        <v>0.87</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>12.8</v>
+        <v>1.28</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>14</v>
+        <v>1.4</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>14.88</v>
+        <v>1.49</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>3.97</v>
+        <v>0.4</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>12.56</v>
+        <v>1.26</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>17.88</v>
+        <v>1.79</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>10.54</v>
+        <v>1.05</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>183.81</v>
+        <v>18.38</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>35.12</v>
+        <v>3.51</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>11.59</v>
+        <v>1.16</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>23.66</v>
+        <v>2.37</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>12.41</v>
+        <v>1.24</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.72</v>
+        <v>0.17</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>24.05</v>
+        <v>2.41</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>10.24</v>
+        <v>1.02</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>9.050000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>10.64</v>
+        <v>1.06</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>14.72</v>
+        <v>1.47</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>44.76</v>
+        <v>4.48</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>6.54</v>
+        <v>0.65</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>14.49</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_60.xlsx
+++ b/DATA_goal/Junction_Flooding_60.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,21 +450,21 @@
     <col width="6" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="6" customWidth="1" min="26" max="26"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41492.34027777778</v>
+        <v>40751.46527777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.06</v>
+        <v>0.97</v>
       </c>
       <c r="C2" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="V2" s="4" t="n">
         <v>0.73</v>
       </c>
-      <c r="D2" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>12.31</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.79</v>
-      </c>
       <c r="W2" s="4" t="n">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.66</v>
+        <v>0.6</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0.25</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.14</v>
+        <v>1.92</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.99</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41492.34722222222</v>
+        <v>40751.47222222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.89</v>
+        <v>1.05</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0.16</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.69</v>
+        <v>3.13</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.1</v>
+        <v>2.48</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.65</v>
+        <v>0.77</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.91</v>
+        <v>1.07</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.07</v>
+        <v>1.26</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.16</v>
+        <v>1.34</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.29</v>
+        <v>0.36</v>
       </c>
       <c r="O3" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>16.43</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AC3" s="4" t="n">
         <v>0.97</v>
       </c>
-      <c r="P3" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>14.03</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.84</v>
-      </c>
       <c r="AD3" s="4" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.11</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.3</v>
+        <v>3.77</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.48</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.12</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41492.35416666666</v>
+        <v>40751.47916666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.58</v>
+        <v>1.57</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.42</v>
+        <v>1.17</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="R4" s="4" t="n">
         <v>0.09</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.08</v>
-      </c>
       <c r="S4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>6.37</v>
+        <v>18.15</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.32</v>
+        <v>3.47</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.43</v>
+        <v>1.15</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.85</v>
+        <v>2.31</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.45</v>
+        <v>1.22</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.02</v>
+        <v>2.4</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.38</v>
+        <v>1.01</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.35</v>
+        <v>0.9</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.41</v>
+        <v>1.06</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.54</v>
+        <v>1.46</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.93</v>
+        <v>4.38</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.23</v>
+        <v>0.63</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.54</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41492.36111111111</v>
+        <v>40751.48611111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.64</v>
+        <v>0.61</v>
       </c>
       <c r="C5" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G5" s="4" t="n">
         <v>0.47</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.5</v>
-      </c>
       <c r="H5" s="4" t="n">
-        <v>2.04</v>
+        <v>2.29</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.57</v>
+        <v>0.55</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.03</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>7.05</v>
+        <v>6.71</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.85</v>
+        <v>2.12</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41492.36805555555</v>
+        <v>40751.49304398148</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.47</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.35</v>
+        <v>7.44</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.75</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>1.04</v>
+        <v>21.93</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>17.7</v>
       </c>
       <c r="G6" s="4" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="S6" s="4" t="n">
         <v>0.36</v>
       </c>
-      <c r="H6" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="T6" s="4" t="n">
-        <v>4.99</v>
+        <v>112.83</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>1.06</v>
+        <v>22.02</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.35</v>
+        <v>7.29</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>14.67</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.36</v>
+        <v>7.73</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.06</v>
+        <v>1.05</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>0.78</v>
+        <v>14.9</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.31</v>
+        <v>6.44</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.28</v>
+        <v>5.76</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.33</v>
+        <v>6.76</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.44</v>
+        <v>9.27</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.41</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>1.45</v>
+        <v>27.18</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.19</v>
+        <v>4.03</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41492.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>24.45</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>5.44</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41492.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41492.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>17.35</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.37</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41492.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>18.38</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41492.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>11.28</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>20.53</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>54.52</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>11.59</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>18.98</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>4.69</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_60.xlsx
+++ b/DATA_goal/Junction_Flooding_60.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>40751.46527777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.69</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.91</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.14</v>
+        <v>21.43</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.58</v>
+        <v>15.75</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.43</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.12</v>
+        <v>21.23</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.04</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.42</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.57</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.93</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.53</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.79</v>
+        <v>7.9</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.05</v>
+        <v>10.53</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.37</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.23</v>
+        <v>2.31</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>11.28</v>
+        <v>112.77</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.17</v>
+        <v>21.72</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.73</v>
+        <v>7.29</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.36</v>
+        <v>13.64</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.42</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.85</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.44</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.6</v>
+        <v>5.96</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.92</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.46</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.92</v>
+        <v>19.24</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.91</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40751.47222222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.42</v>
+        <v>14.16</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.05</v>
+        <v>10.48</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.59</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.13</v>
+        <v>31.25</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.48</v>
+        <v>24.77</v>
       </c>
       <c r="G3" s="4" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>41.03</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>17.39</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>15.76</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>164.34</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>10.41</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>20.76</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>1.1</v>
       </c>
-      <c r="H3" s="4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.11</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>3.77</v>
+        <v>37.69</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.65</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.3</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40751.47916666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.57</v>
+        <v>15.67</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.17</v>
+        <v>11.68</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.24</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.44</v>
+        <v>34.45</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.78</v>
+        <v>27.76</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.22</v>
+        <v>12.2</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.8</v>
+        <v>47.95</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.91</v>
+        <v>19.14</v>
       </c>
       <c r="J4" s="4" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>14.74</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>17.49</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="R4" s="4" t="n">
         <v>0.86</v>
       </c>
-      <c r="K4" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.09</v>
-      </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>18.15</v>
+        <v>181.52</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.47</v>
+        <v>34.7</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.45</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.31</v>
+        <v>23.11</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.22</v>
+        <v>12.17</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.67</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.4</v>
+        <v>24.01</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.01</v>
+        <v>10.12</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.9</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.06</v>
+        <v>10.62</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.46</v>
+        <v>14.58</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.38</v>
+        <v>43.81</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.63</v>
+        <v>6.33</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.43</v>
+        <v>14.32</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40751.48611111111</v>
       </c>
       <c r="B5" s="4" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="R5" s="4" t="n">
         <v>0.61</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>6.71</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.39</v>
+        <v>13.86</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.45</v>
+        <v>4.51</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.91</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.75</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.12</v>
+        <v>11.16</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.63</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.26</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.57</v>
+        <v>5.75</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.12</v>
+        <v>21.24</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.24</v>
+        <v>2.42</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_60.xlsx
+++ b/DATA_goal/Junction_Flooding_60.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,100 +655,100 @@
         <v>40751.46527777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>9.69</v>
+        <v>9.686</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>6.9</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.91</v>
+        <v>2.907</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>21.43</v>
+        <v>21.429</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>15.75</v>
+        <v>15.753</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>7.43</v>
+        <v>7.426</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>21.23</v>
+        <v>21.228</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>12.15</v>
+        <v>12.148</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.04</v>
+        <v>5.042</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.42</v>
+        <v>6.422</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8.57</v>
+        <v>8.574</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>9.294</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.53</v>
+        <v>2.529</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.9</v>
+        <v>7.895</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>10.53</v>
+        <v>10.528</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.37</v>
+        <v>7.369</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>2.31</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.83</v>
+        <v>0.826</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>112.77</v>
+        <v>112.771</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>21.72</v>
+        <v>21.717</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.29</v>
+        <v>7.288</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>13.64</v>
+        <v>13.637</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.42</v>
+        <v>7.423</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.54</v>
+        <v>1.536</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>12.85</v>
+        <v>12.849</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.44</v>
+        <v>6.437</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.96</v>
+        <v>5.959</v>
       </c>
       <c r="AC2" s="4" t="n">
         <v>6.92</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>9.375999999999999</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.46</v>
+        <v>2.459</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>19.24</v>
+        <v>19.236</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.64</v>
+        <v>3.642</v>
       </c>
       <c r="AH2" s="4" t="n">
         <v>9.109999999999999</v>
@@ -759,103 +759,103 @@
         <v>40751.47222222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>14.16</v>
+        <v>14.162</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10.48</v>
+        <v>10.482</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.59</v>
+        <v>1.588</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>31.25</v>
+        <v>31.252</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>24.77</v>
+        <v>24.769</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>10.99</v>
+        <v>10.987</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>41.03</v>
+        <v>41.034</v>
       </c>
       <c r="I3" s="4" t="n">
         <v>17.39</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.71</v>
+        <v>7.711</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>10.73</v>
+        <v>10.727</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>12.55</v>
+        <v>12.553</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>13.4</v>
+        <v>13.403</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.62</v>
+        <v>3.622</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>11.28</v>
+        <v>11.279</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>15.76</v>
+        <v>15.755</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>9.890000000000001</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.19</v>
+        <v>1.189</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.65</v>
+        <v>0.654</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>164.34</v>
+        <v>164.345</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>31.5</v>
+        <v>31.504</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>10.41</v>
+        <v>10.411</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>20.76</v>
+        <v>20.762</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>10.98</v>
+        <v>10.982</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.58</v>
+        <v>1.583</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>21.4</v>
+        <v>21.405</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.196</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>8.282999999999999</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.73</v>
+        <v>9.731</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>13.28</v>
+        <v>13.277</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.1</v>
+        <v>1.098</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>37.69</v>
+        <v>37.686</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.65</v>
+        <v>5.648</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>13.02</v>
+        <v>13.016</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40751.47916666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>15.67</v>
+        <v>15.672</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>11.68</v>
+        <v>11.681</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.24</v>
+        <v>1.239</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>34.45</v>
+        <v>34.447</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>27.76</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>12.2</v>
+        <v>12.202</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>47.95</v>
+        <v>47.951</v>
       </c>
       <c r="I4" s="4" t="n">
         <v>19.14</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>8.59</v>
+        <v>8.587</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>12.19</v>
+        <v>12.194</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>13.84</v>
+        <v>13.835</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>14.74</v>
+        <v>14.741</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.99</v>
+        <v>3.985</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>12.41</v>
+        <v>12.407</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>17.49</v>
+        <v>17.487</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>10.67</v>
+        <v>10.668</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.86</v>
+        <v>0.859</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.6</v>
+        <v>0.601</v>
       </c>
       <c r="T4" s="4" t="n">
         <v>181.52</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>34.7</v>
+        <v>34.698</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>11.45</v>
+        <v>11.452</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>23.11</v>
+        <v>23.106</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>12.17</v>
+        <v>12.169</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.67</v>
+        <v>1.671</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>24.01</v>
+        <v>24.014</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>10.12</v>
+        <v>10.115</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.039999999999999</v>
+        <v>9.037000000000001</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>10.62</v>
+        <v>10.623</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>14.58</v>
+        <v>14.578</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.71</v>
+        <v>0.707</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>43.81</v>
+        <v>43.808</v>
       </c>
       <c r="AG4" s="4" t="n">
         <v>6.33</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>14.32</v>
+        <v>14.317</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>5.64</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40751.49304398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>21.93</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>29.99</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>8.81</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>112.83</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>22.02</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>14.67</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.76</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>9.27</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>27.18</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9.109999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_60.xlsx
+++ b/DATA_goal/Junction_Flooding_60.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>40751.48611111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.1</v>
+        <v>6.103</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.52</v>
+        <v>4.521</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.73</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>13.56</v>
+        <v>13.564</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>10.68</v>
+        <v>10.675</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.69</v>
+        <v>4.691</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>22.9</v>
+        <v>22.899</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>7.51</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.43</v>
+        <v>3.428</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.54</v>
+        <v>4.543</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.45</v>
+        <v>5.453</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5.86</v>
+        <v>5.859</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.58</v>
+        <v>1.575</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.89</v>
+        <v>4.888</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>6.84</v>
+        <v>6.836</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.35</v>
+        <v>4.352</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.61</v>
+        <v>0.609</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.27</v>
+        <v>0.272</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>67.09999999999999</v>
+        <v>67.095</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>13.86</v>
+        <v>13.857</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.51</v>
+        <v>4.511</v>
       </c>
       <c r="W5" s="4" t="n">
+        <v>9.106</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>4.753</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>11.163</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>3.985</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>3.629</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>4.257</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>5.749</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.521</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>21.237</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>2.418</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>5.641</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>40751.49304398148</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>112.83</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>14.67</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>27.18</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="AH6" s="4" t="n">
         <v>9.109999999999999</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>21.24</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>5.64</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_60.xlsx
+++ b/DATA_goal/Junction_Flooding_60.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>40751.48611111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.103</v>
+        <v>6.1</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.521</v>
+        <v>4.52</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.73</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>13.564</v>
+        <v>13.56</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>10.675</v>
+        <v>10.68</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.691</v>
+        <v>4.69</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>22.899</v>
+        <v>22.9</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>7.51</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.428</v>
+        <v>3.43</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.543</v>
+        <v>4.54</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.453</v>
+        <v>5.45</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5.859</v>
+        <v>5.86</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.575</v>
+        <v>1.58</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.888</v>
+        <v>4.89</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>6.836</v>
+        <v>6.84</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.352</v>
+        <v>4.35</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.609</v>
+        <v>0.61</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.272</v>
+        <v>0.27</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>67.095</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>13.857</v>
+        <v>13.86</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.511</v>
+        <v>4.51</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>9.106</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.753</v>
+        <v>4.75</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.665</v>
+        <v>0.67</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>11.163</v>
+        <v>11.16</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.985</v>
+        <v>3.98</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.629</v>
+        <v>3.63</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.257</v>
+        <v>4.26</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>5.749</v>
+        <v>5.75</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.521</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>21.237</v>
+        <v>21.24</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.418</v>
+        <v>2.42</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>5.641</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40751.49304398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>21.93</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>29.99</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>8.81</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>112.83</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>22.02</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>14.67</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.76</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>9.27</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>27.18</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>5.64</v>
       </c>
     </row>
   </sheetData>
